--- a/inst/extdata/excel/conditions.xlsx
+++ b/inst/extdata/excel/conditions.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t xml:space="preserve">operator</t>
   </si>
@@ -34,13 +34,10 @@
     <t xml:space="preserve">less than or equal to</t>
   </si>
   <si>
-    <t xml:space="preserve">equal to</t>
+    <t xml:space="preserve">ACHTUNG: B2 UND FOLGENDE ZELLEN MÜSSEN DATE FORMATIERT SEIN</t>
   </si>
   <si>
-    <t xml:space="preserve">2010-10-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACHTUNG: B2 UND FOLGENDE ZELLEN MÜSSEN DATE FORMATIERT SEIN</t>
+    <t xml:space="preserve">equal to</t>
   </si>
   <si>
     <t xml:space="preserve">-966 nicht bestimmbar</t>
@@ -83,10 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -183,8 +179,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -234,7 +230,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.29"/>
@@ -3281,10 +3277,10 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.51"/>
   </cols>
@@ -3298,14 +3294,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="D2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,7 +3386,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="27"/>
@@ -3410,42 +3402,42 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3468,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="29.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="29.57"/>
@@ -3485,35 +3477,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,26 +3518,26 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
